--- a/番剧数据-原始数据【其它国家动画-更早年】.xlsx
+++ b/番剧数据-原始数据【其它国家动画-更早年】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,14 +581,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,133 +1076,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,8 +1210,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1537,8 +1530,8 @@
   <sheetPr/>
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:A83"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1615,7 +1608,9 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3">
+        <v>2020</v>
+      </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1651,7 +1646,9 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3">
+        <v>2020</v>
+      </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1687,7 +1684,9 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3">
+        <v>2020</v>
+      </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1723,7 +1722,9 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3">
+        <v>2020</v>
+      </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1759,7 +1760,9 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3">
+        <v>2020</v>
+      </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1795,7 +1798,9 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3">
+        <v>2020</v>
+      </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1831,7 +1836,9 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>2020</v>
+      </c>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1867,7 +1874,9 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3">
+        <v>2020</v>
+      </c>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1903,7 +1912,9 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1939,7 +1950,9 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3">
+        <v>2020</v>
+      </c>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1975,7 +1988,9 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>2020</v>
+      </c>
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -2011,7 +2026,9 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3">
+        <v>2020</v>
+      </c>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -2047,7 +2064,9 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>2020</v>
+      </c>
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -2083,7 +2102,9 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3">
+        <v>2020</v>
+      </c>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -2158,7 +2179,9 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3">
+        <v>2019</v>
+      </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
@@ -2195,7 +2218,9 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>2019</v>
+      </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
@@ -2232,7 +2257,9 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3">
+        <v>2019</v>
+      </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
@@ -2269,7 +2296,9 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>2019</v>
+      </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
@@ -2306,7 +2335,9 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3">
+        <v>2019</v>
+      </c>
       <c r="B22" s="2">
         <v>5</v>
       </c>
@@ -2343,7 +2374,9 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3">
+        <v>2019</v>
+      </c>
       <c r="B23" s="2">
         <v>6</v>
       </c>
@@ -2380,7 +2413,9 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3">
+        <v>2019</v>
+      </c>
       <c r="B24" s="2">
         <v>7</v>
       </c>
@@ -2417,7 +2452,9 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3">
+        <v>2019</v>
+      </c>
       <c r="B25" s="2">
         <v>8</v>
       </c>
@@ -2454,7 +2491,9 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3">
+        <v>2019</v>
+      </c>
       <c r="B26" s="2">
         <v>9</v>
       </c>
@@ -2491,7 +2530,9 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3">
+        <v>2019</v>
+      </c>
       <c r="B27" s="2">
         <v>10</v>
       </c>
@@ -2528,7 +2569,9 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3">
+        <v>2019</v>
+      </c>
       <c r="B28" s="2">
         <v>11</v>
       </c>
@@ -2565,7 +2608,9 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>2019</v>
+      </c>
       <c r="B29" s="2">
         <v>12</v>
       </c>
@@ -2602,7 +2647,9 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3">
+        <v>2019</v>
+      </c>
       <c r="B30" s="2">
         <v>13</v>
       </c>
@@ -2639,7 +2686,9 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>2019</v>
+      </c>
       <c r="B31" s="2">
         <v>14</v>
       </c>
@@ -2676,7 +2725,9 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3">
+        <v>2019</v>
+      </c>
       <c r="B32" s="2">
         <v>15</v>
       </c>
@@ -2713,7 +2764,9 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>2019</v>
+      </c>
       <c r="B33" s="2">
         <v>16</v>
       </c>
@@ -2750,7 +2803,9 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3">
+        <v>2019</v>
+      </c>
       <c r="B34" s="2">
         <v>17</v>
       </c>
@@ -2787,7 +2842,9 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3">
+        <v>2019</v>
+      </c>
       <c r="B35" s="2">
         <v>18</v>
       </c>
@@ -2824,7 +2881,9 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3">
+        <v>2019</v>
+      </c>
       <c r="B36" s="2">
         <v>19</v>
       </c>
@@ -2861,7 +2920,9 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3">
+        <v>2019</v>
+      </c>
       <c r="B37" s="2">
         <v>20</v>
       </c>
@@ -2937,7 +2998,9 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3">
+        <v>2018</v>
+      </c>
       <c r="B39" s="2">
         <v>1</v>
       </c>
@@ -2974,7 +3037,9 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="3"/>
+      <c r="A40" s="3">
+        <v>2018</v>
+      </c>
       <c r="B40" s="2">
         <v>2</v>
       </c>
@@ -3011,7 +3076,9 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="3"/>
+      <c r="A41" s="3">
+        <v>2018</v>
+      </c>
       <c r="B41" s="2">
         <v>3</v>
       </c>
@@ -3048,7 +3115,9 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3">
+        <v>2018</v>
+      </c>
       <c r="B42" s="2">
         <v>4</v>
       </c>
@@ -3085,7 +3154,9 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3">
+        <v>2018</v>
+      </c>
       <c r="B43" s="2">
         <v>5</v>
       </c>
@@ -3122,7 +3193,9 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3">
+        <v>2018</v>
+      </c>
       <c r="B44" s="2">
         <v>6</v>
       </c>
@@ -3159,7 +3232,9 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3">
+        <v>2018</v>
+      </c>
       <c r="B45" s="2">
         <v>7</v>
       </c>
@@ -3196,7 +3271,9 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3">
+        <v>2018</v>
+      </c>
       <c r="B46" s="2">
         <v>8</v>
       </c>
@@ -3233,7 +3310,9 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3">
+        <v>2018</v>
+      </c>
       <c r="B47" s="2">
         <v>9</v>
       </c>
@@ -3311,7 +3390,9 @@
       <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="3"/>
+      <c r="A49" s="3">
+        <v>2017</v>
+      </c>
       <c r="B49" s="2">
         <v>1</v>
       </c>
@@ -3350,7 +3431,9 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="3"/>
+      <c r="A50" s="3">
+        <v>2017</v>
+      </c>
       <c r="B50" s="2">
         <v>2</v>
       </c>
@@ -3389,7 +3472,9 @@
       <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="3"/>
+      <c r="A51" s="3">
+        <v>2017</v>
+      </c>
       <c r="B51" s="2">
         <v>3</v>
       </c>
@@ -3428,7 +3513,9 @@
       <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="3"/>
+      <c r="A52" s="3">
+        <v>2017</v>
+      </c>
       <c r="B52" s="2">
         <v>4</v>
       </c>
@@ -3467,7 +3554,9 @@
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3">
+        <v>2017</v>
+      </c>
       <c r="B53" s="2">
         <v>5</v>
       </c>
@@ -3506,7 +3595,9 @@
       <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="3"/>
+      <c r="A54" s="3">
+        <v>2017</v>
+      </c>
       <c r="B54" s="2">
         <v>6</v>
       </c>
@@ -3586,7 +3677,9 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="3"/>
+      <c r="A56" s="3">
+        <v>2016</v>
+      </c>
       <c r="B56" s="2">
         <v>1</v>
       </c>
@@ -3625,7 +3718,9 @@
       <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="3"/>
+      <c r="A57" s="3">
+        <v>2016</v>
+      </c>
       <c r="B57" s="2">
         <v>2</v>
       </c>
@@ -3664,7 +3759,9 @@
       <c r="Q57" s="1"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3">
+        <v>2016</v>
+      </c>
       <c r="B58" s="2">
         <v>3</v>
       </c>
@@ -3701,7 +3798,9 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3">
+        <v>2016</v>
+      </c>
       <c r="B59" s="2">
         <v>4</v>
       </c>
@@ -3738,7 +3837,9 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="3"/>
+      <c r="A60" s="3">
+        <v>2016</v>
+      </c>
       <c r="B60" s="2">
         <v>5</v>
       </c>
@@ -3775,7 +3876,9 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="3"/>
+      <c r="A61" s="3">
+        <v>2016</v>
+      </c>
       <c r="B61" s="2">
         <v>6</v>
       </c>
@@ -3812,7 +3915,9 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3">
+        <v>2016</v>
+      </c>
       <c r="B62" s="2">
         <v>7</v>
       </c>
@@ -3849,7 +3954,9 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="3"/>
+      <c r="A63" s="3">
+        <v>2016</v>
+      </c>
       <c r="B63" s="2">
         <v>8</v>
       </c>
@@ -3886,7 +3993,9 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="3"/>
+      <c r="A64" s="3">
+        <v>2016</v>
+      </c>
       <c r="B64" s="2">
         <v>9</v>
       </c>
@@ -3923,7 +4032,9 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3">
+        <v>2016</v>
+      </c>
       <c r="B65" s="2">
         <v>10</v>
       </c>
@@ -3960,7 +4071,9 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3">
+        <v>2016</v>
+      </c>
       <c r="B66" s="2">
         <v>11</v>
       </c>
@@ -3997,7 +4110,9 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="3"/>
+      <c r="A67" s="3">
+        <v>2016</v>
+      </c>
       <c r="B67" s="2">
         <v>12</v>
       </c>
@@ -4034,7 +4149,9 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="3"/>
+      <c r="A68" s="3">
+        <v>2016</v>
+      </c>
       <c r="B68" s="2">
         <v>13</v>
       </c>
@@ -4071,7 +4188,9 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3">
+        <v>2016</v>
+      </c>
       <c r="B69" s="2">
         <v>14</v>
       </c>
@@ -4151,7 +4270,9 @@
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="3"/>
+      <c r="A71" s="3">
+        <v>2015</v>
+      </c>
       <c r="B71" s="2">
         <v>1</v>
       </c>
@@ -4192,7 +4313,9 @@
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="3"/>
+      <c r="A72" s="3">
+        <v>2015</v>
+      </c>
       <c r="B72" s="2">
         <v>2</v>
       </c>
@@ -4233,7 +4356,9 @@
       <c r="S72" s="1"/>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="3"/>
+      <c r="A73" s="3">
+        <v>2015</v>
+      </c>
       <c r="B73" s="2">
         <v>3</v>
       </c>
@@ -4274,7 +4399,9 @@
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="3"/>
+      <c r="A74" s="3">
+        <v>2015</v>
+      </c>
       <c r="B74" s="2">
         <v>4</v>
       </c>
@@ -4315,7 +4442,9 @@
       <c r="S74" s="1"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="3"/>
+      <c r="A75" s="3">
+        <v>2015</v>
+      </c>
       <c r="B75" s="2">
         <v>5</v>
       </c>
@@ -4356,7 +4485,9 @@
       <c r="S75" s="1"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="3"/>
+      <c r="A76" s="3">
+        <v>2015</v>
+      </c>
       <c r="B76" s="2">
         <v>6</v>
       </c>
@@ -4397,7 +4528,9 @@
       <c r="S76" s="1"/>
     </row>
     <row r="77" spans="1:19">
-      <c r="A77" s="3"/>
+      <c r="A77" s="3">
+        <v>2015</v>
+      </c>
       <c r="B77" s="2">
         <v>7</v>
       </c>
@@ -4438,7 +4571,9 @@
       <c r="S77" s="1"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="3"/>
+      <c r="A78" s="3">
+        <v>2015</v>
+      </c>
       <c r="B78" s="2">
         <v>8</v>
       </c>
@@ -4479,7 +4614,9 @@
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="3"/>
+      <c r="A79" s="3">
+        <v>2015</v>
+      </c>
       <c r="B79" s="2">
         <v>9</v>
       </c>
@@ -4520,7 +4657,9 @@
       <c r="S79" s="1"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="3"/>
+      <c r="A80" s="3">
+        <v>2015</v>
+      </c>
       <c r="B80" s="2">
         <v>10</v>
       </c>
@@ -4561,7 +4700,9 @@
       <c r="S80" s="1"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="3"/>
+      <c r="A81" s="3">
+        <v>2015</v>
+      </c>
       <c r="B81" s="2">
         <v>11</v>
       </c>
@@ -4602,7 +4743,9 @@
       <c r="S81" s="1"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="3"/>
+      <c r="A82" s="3">
+        <v>2015</v>
+      </c>
       <c r="B82" s="2">
         <v>12</v>
       </c>
@@ -4643,7 +4786,9 @@
       <c r="S82" s="1"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="3"/>
+      <c r="A83" s="3">
+        <v>2015</v>
+      </c>
       <c r="B83" s="2">
         <v>13</v>
       </c>
@@ -4764,14 +4909,6 @@
       <c r="S87" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A55:A69"/>
-    <mergeCell ref="A70:A83"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
